--- a/test_data/case.xlsx
+++ b/test_data/case.xlsx
@@ -14,7 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="知识补充" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" calcOnSave="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -507,8 +507,8 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>http://172.16.20.25:82/center/login</t>
+          <t>http://${url}:${port}/center/login</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -683,16 +683,6 @@
       <c r="I3" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -727,22 +717,12 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -777,22 +757,12 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
           <t>正确</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '用户名不存在，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -827,22 +797,12 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>正确</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>['正确', {'message': [{'userID': '56d998ef-20fd-4c59-9245-10b787056a95', 'userName': 'web', 'mineCode': ''}]}]</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -877,22 +837,12 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '用户名不存在，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -927,22 +877,12 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -977,22 +917,12 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1027,22 +957,12 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1077,22 +997,12 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1127,22 +1037,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>['正确', {'message': [{'userID': '56d998ef-20fd-4c59-9245-10b787056a95', 'userName': 'web', 'mineCode': ''}]}]</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1177,22 +1077,12 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>['正确', {'message': [{'userID': '56d998ef-20fd-4c59-9245-10b787056a95', 'userName': 'web', 'mineCode': ''}]}]</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1227,22 +1117,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>['正确', {'message': [{'userID': '56d998ef-20fd-4c59-9245-10b787056a95', 'userName': 'web', 'mineCode': ''}]}]</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Fail</t>
         </is>
       </c>
     </row>
@@ -1277,22 +1157,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '用户名不存在，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1327,22 +1197,12 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
           <t>错误</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>['错误', {'message': '输入密码有误，请重新填写！'}]</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Pass</t>
         </is>
       </c>
     </row>
